--- a/total_sum_usd.xlsx
+++ b/total_sum_usd.xlsx
@@ -524,7 +524,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total (USD)</t>
+          <t>Итого (USD)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
